--- a/public/templates/product_import_template.xlsx
+++ b/public/templates/product_import_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>title</t>
   </si>
@@ -38,12 +38,15 @@
     <t>stock_count</t>
   </si>
   <si>
-    <t>quantitylimit</t>
+    <t>stock_status</t>
   </si>
   <si>
     <t>Sample Product 1</t>
   </si>
   <si>
+    <t>Home Appliances</t>
+  </si>
+  <si>
     <t>HSN123456</t>
   </si>
   <si>
@@ -51,6 +54,24 @@
   </si>
   <si>
     <t>HSN789012</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>1. Product codes will be automatically generated based on the category name.</t>
+  </si>
+  <si>
+    <t>2. Category must be a valid category NAME from the system (case-sensitive).</t>
+  </si>
+  <si>
+    <t>3. Required fields: title, category, cost_price, selling_price</t>
+  </si>
+  <si>
+    <t>4. stock_status: 1 for In Stock, 0 for Out of Stock</t>
+  </si>
+  <si>
+    <t>Valid Categories (Name):</t>
   </si>
 </sst>
 </file>
@@ -58,9 +79,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -89,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,59 +421,70 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="90.692" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="29.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -457,18 +499,24 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -483,7 +531,20 @@
         <v>20</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="J5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
